--- a/Reflectivity/2017-08-30.xlsx
+++ b/Reflectivity/2017-08-30.xlsx
@@ -63,1540 +63,1540 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.33625879398098174</v>
+        <v>0.3465912755044533</v>
       </c>
       <c r="B2" t="n">
-        <v>0.33690370687039556</v>
+        <v>0.3472476869586664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.33737368483064845</v>
+        <v>0.34770827745090943</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3379292942254562</v>
+        <v>0.3482923356922216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3383452668549673</v>
+        <v>0.3487012215515054</v>
       </c>
       <c r="F2" t="n">
-        <v>0.33829127396511205</v>
+        <v>0.34870057423046563</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3375434026002709</v>
+        <v>0.3479255558132754</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3372276525647304</v>
+        <v>0.3476565204679923</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3365076770090417</v>
+        <v>0.34688288052026833</v>
       </c>
       <c r="J2" t="n">
-        <v>0.33634197102620844</v>
+        <v>0.3467185267139718</v>
       </c>
       <c r="K2" t="n">
-        <v>0.33480880505690586</v>
+        <v>0.3450934980006595</v>
       </c>
       <c r="L2" t="n">
-        <v>0.33353883262174555</v>
+        <v>0.3438167215224923</v>
       </c>
       <c r="M2" t="n">
-        <v>0.330547703784971</v>
+        <v>0.34067858243988614</v>
       </c>
       <c r="N2" t="n">
-        <v>0.32835425980702804</v>
+        <v>0.33845295042893253</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3249206913602518</v>
+        <v>0.33478009051710844</v>
       </c>
       <c r="P2" t="n">
-        <v>0.32307751404073437</v>
+        <v>0.33286050725939986</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.31996945832178153</v>
+        <v>0.3296276866917309</v>
       </c>
       <c r="R2" t="n">
-        <v>0.317753654314643</v>
+        <v>0.327423112940023</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3144513245661473</v>
+        <v>0.32409154766360454</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3127476666053511</v>
+        <v>0.32237905051551186</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3110033844607982</v>
+        <v>0.32056720702247826</v>
       </c>
       <c r="V2" t="n">
-        <v>0.31062128259808597</v>
+        <v>0.32019384273270773</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3095796839743348</v>
+        <v>0.31909071338641265</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3089583289100622</v>
+        <v>0.3185045063444031</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3076806115529908</v>
+        <v>0.31715818903018833</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3076586372223908</v>
+        <v>0.3171553602521586</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3078696111427714</v>
+        <v>0.3173242831804754</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3093595541677217</v>
+        <v>0.31884505895524895</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.31008197111396935</v>
+        <v>0.3195760610133127</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3111210509820263</v>
+        <v>0.32063994379137783</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3109971409531188</v>
+        <v>0.32047404324453926</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3118377192080046</v>
+        <v>0.32131243830890865</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.312153585962859</v>
+        <v>0.32160433175479525</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.3132781978585588</v>
+        <v>0.32278029839873285</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.31298427485165725</v>
+        <v>0.3224630494547327</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.3125054653483869</v>
+        <v>0.32199637112203955</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.3107027388803928</v>
+        <v>0.32012840955700816</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3095394704658338</v>
+        <v>0.31896103415009697</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.3080801210626535</v>
+        <v>0.3174337224369578</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.30733443892687334</v>
+        <v>0.3166912193032045</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.30524997564484113</v>
+        <v>0.3145372891744153</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.3027511567492574</v>
+        <v>0.3119930108007318</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.2989615089805527</v>
+        <v>0.30810551875485415</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.29584486213486133</v>
+        <v>0.30492366470183146</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.2923539402633845</v>
+        <v>0.3013759398237762</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2895371508944369</v>
+        <v>0.29851969119634775</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.28585123370816756</v>
+        <v>0.2947375692865127</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.2823018339552514</v>
+        <v>0.29112842740594386</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.2779947054100764</v>
+        <v>0.2867205523082861</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.27431849408659886</v>
+        <v>0.2829954215006199</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.27065115172480875</v>
+        <v>0.27925050874401797</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.2675686467856152</v>
+        <v>0.2760839964860662</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.26362752665515027</v>
+        <v>0.27204145104513644</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.2593332156668853</v>
+        <v>0.26767013029416253</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.254355119137367</v>
+        <v>0.26259845845694785</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.2501611518007042</v>
+        <v>0.2583106089327877</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.24647811300199535</v>
+        <v>0.2545113148236558</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.24382327007345744</v>
+        <v>0.2518032072227475</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.24068355890114643</v>
+        <v>0.24858158312958978</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.23736861955789632</v>
+        <v>0.24519068416651202</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.23293201498935934</v>
+        <v>0.24062549381244022</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.22852661899026708</v>
+        <v>0.23613942598400675</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.22368570092667792</v>
+        <v>0.23118148813342246</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.2189038070363366</v>
+        <v>0.22630471937700808</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.21314771374856556</v>
+        <v>0.22041248478324973</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.2070445471175779</v>
+        <v>0.21419286357006942</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.20038607979037593</v>
+        <v>0.2073770785556823</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.19478269862961406</v>
+        <v>0.20161835650802704</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.19016338934296334</v>
+        <v>0.19685282961923659</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.18690314677677164</v>
+        <v>0.19350690149818453</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.183836301043671</v>
+        <v>0.19036171033741145</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.18108986599746368</v>
+        <v>0.1875563320329802</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.17831261206666363</v>
+        <v>0.18470959202884382</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1761640980797675</v>
+        <v>0.18252159219413341</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.17418801656592656</v>
+        <v>0.18048828983300402</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.17255442162829204</v>
+        <v>0.17879074839466144</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.17040840833971854</v>
+        <v>0.17658502323520814</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.16822561385943688</v>
+        <v>0.1743478520610961</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.16612238015501848</v>
+        <v>0.1721751819303119</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.16516891503095046</v>
+        <v>0.17119988754402873</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.1651294034013596</v>
+        <v>0.17115028388610445</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.16596365676392838</v>
+        <v>0.1720287980375055</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.16660857127940704</v>
+        <v>0.1726548701355691</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.16698077382484824</v>
+        <v>0.17304636396044917</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.16689887259242644</v>
+        <v>0.1729576011883198</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.16728164910831053</v>
+        <v>0.17334923376512032</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.16822562378791353</v>
+        <v>0.17429973865639492</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.170082289527108</v>
+        <v>0.17619685971194357</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.1722624321835954</v>
+        <v>0.1784486496758509</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.17519549613466925</v>
+        <v>0.18146132251404648</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.17888713692310246</v>
+        <v>0.18526022243537943</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.18415424428903499</v>
+        <v>0.19065585727889406</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.19049075375322488</v>
+        <v>0.19716729524083976</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.19762287754154514</v>
+        <v>0.20448681116454773</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.20438776401611367</v>
+        <v>0.21142753108522686</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.21056825876606794</v>
+        <v>0.21774139212113808</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.2159472160611273</v>
+        <v>0.2232369614791054</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.22148914837311637</v>
+        <v>0.22891473576670388</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.22695479065587984</v>
+        <v>0.2345053440359596</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.23267385526182235</v>
+        <v>0.2403600973998038</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.2376019337066732</v>
+        <v>0.24538993526156905</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.24205460757476785</v>
+        <v>0.24995538026751343</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.2458043593024579</v>
+        <v>0.25377100786764095</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.24994392750373068</v>
+        <v>0.2580017710311582</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2541047401339933</v>
+        <v>0.2622474713763119</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.2585844097967667</v>
+        <v>0.2668093268757226</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.26203413486511007</v>
+        <v>0.27032956739562963</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2647433958924963</v>
+        <v>0.27308683096053593</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.26646437650816707</v>
+        <v>0.27485355972523806</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.26850706858898066</v>
+        <v>0.2769297021572791</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.27075330584551366</v>
+        <v>0.2792150335249294</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.27343179401435064</v>
+        <v>0.28193985677394817</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.2754795497379012</v>
+        <v>0.284024082402253</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.27705897933808254</v>
+        <v>0.2856276561284755</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.2779143754907593</v>
+        <v>0.28649971912286837</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.2791797197259357</v>
+        <v>0.2878040701133999</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2805837826330379</v>
+        <v>0.2892492620666517</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.28257114556598595</v>
+        <v>0.29127109892337594</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.2839079329258213</v>
+        <v>0.2926040228296119</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.28483136398955544</v>
+        <v>0.2935308448082913</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.2851975950670978</v>
+        <v>0.29390542052394136</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.2861717038210083</v>
+        <v>0.29491840432043576</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.28747293338979174</v>
+        <v>0.2962383143054341</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.28930197109583156</v>
+        <v>0.2980914813707533</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.2903699987732706</v>
+        <v>0.29917825273095455</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.2909386217319515</v>
+        <v>0.2997721993291228</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.2907571639319726</v>
+        <v>0.29959674625874627</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.2910102489602978</v>
+        <v>0.2998662420445678</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.29162312671294327</v>
+        <v>0.3004757319355782</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.29263657940866794</v>
+        <v>0.30149138366819345</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.2931585908698207</v>
+        <v>0.3020192967113602</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.2929633277759007</v>
+        <v>0.30183116140584476</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.2922249890184832</v>
+        <v>0.3010979570730933</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.2919357838742077</v>
+        <v>0.3008025753706149</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.2921903689530962</v>
+        <v>0.3010707059596543</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.2928412002856996</v>
+        <v>0.30173786498848215</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.29274171817029226</v>
+        <v>0.301653825671106</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.2920652909432618</v>
+        <v>0.300961394181977</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.2908493593659411</v>
+        <v>0.29973037548545095</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.29018204908815065</v>
+        <v>0.2990237215764464</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.2900637437492104</v>
+        <v>0.29893075575265565</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.29049708069685404</v>
+        <v>0.29937003690663216</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.2904509294229725</v>
+        <v>0.2993632949480665</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.289873969901367</v>
+        <v>0.2987439723599224</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.28892116544825497</v>
+        <v>0.29779964435540585</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.28856156869768224</v>
+        <v>0.2974054342783017</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.28884558613486067</v>
+        <v>0.2977410243070835</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.28930537826852676</v>
+        <v>0.2981845798203974</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.2891926854878663</v>
+        <v>0.298103534259254</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.2882137340324069</v>
+        <v>0.2970621420863866</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.28688015398108335</v>
+        <v>0.29573513859593165</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.2858135202283764</v>
+        <v>0.29459138970762266</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.2853738410166869</v>
+        <v>0.2941748086732172</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.28507725927333866</v>
+        <v>0.2938336458774211</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.2843267237759126</v>
+        <v>0.2931359712711675</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.28263838451966733</v>
+        <v>0.2913565590592288</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.2805927034089102</v>
+        <v>0.28928992753252974</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.2786641549909316</v>
+        <v>0.2872465855001025</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.27722080154444523</v>
+        <v>0.2858024460599005</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.27554357148520575</v>
+        <v>0.2840511568443557</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.27306535541651045</v>
+        <v>0.28153044252498566</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.26916050277644665</v>
+        <v>0.27749066101765196</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.26432554857453233</v>
+        <v>0.2725313464569715</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.25895467281553897</v>
+        <v>0.26701289229372505</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.25343961547800503</v>
+        <v>0.2613622480094421</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.24724157133909266</v>
+        <v>0.25500860866253805</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.23963992568278053</v>
+        <v>0.2472182616273475</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.23073983700728334</v>
+        <v>0.2381462753545104</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.2206833566721166</v>
+        <v>0.22789087574176414</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.21068375903439543</v>
+        <v>0.21767932233009432</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.2008827137094069</v>
+        <v>0.20764391339458366</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.1913170607732291</v>
+        <v>0.19784860076725952</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.1813296034876639</v>
+        <v>0.1876236126780698</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.17127295286625493</v>
+        <v>0.1773226594040178</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.161881653458719</v>
+        <v>0.16767677551527216</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.1545745481348106</v>
+        <v>0.16017416783962465</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.15035034161011918</v>
+        <v>0.15580377670251244</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.14869802135990542</v>
+        <v>0.1541063880490493</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.14803046446807955</v>
+        <v>0.15341166391902006</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.14707531225628445</v>
+        <v>0.1524494363294248</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.1454794536109779</v>
+        <v>0.15082019151090484</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.14401565926018728</v>
+        <v>0.1493295975074198</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.14293554478872014</v>
+        <v>0.14821507700639647</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.14212961545538141</v>
+        <v>0.14737803500573074</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.14079878553951156</v>
+        <v>0.1459948168081768</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.1389548955043389</v>
+        <v>0.14410901320240604</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.13679724732543655</v>
+        <v>0.14186969310522848</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.13509280517448163</v>
+        <v>0.1401146969244314</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.13399452040540516</v>
+        <v>0.13897223905828995</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.1335817363476681</v>
+        <v>0.13855973578294517</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.13357366841220034</v>
+        <v>0.13853876081604477</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.13371106572902536</v>
+        <v>0.13867840529280312</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.13415974045091852</v>
+        <v>0.1391286415229265</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.1348088927181657</v>
+        <v>0.1398124743948178</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.13583615646090494</v>
+        <v>0.14086675812222452</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.1365029646640553</v>
+        <v>0.1415688350238084</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.13640618562226356</v>
+        <v>0.1414724517721776</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.13498397373999085</v>
+        <v>0.14002588475108343</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.13280713534457117</v>
+        <v>0.13778283569116154</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.1303225761352507</v>
+        <v>0.1352314944597384</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.1281786993235143</v>
+        <v>0.13300441877621377</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.12608335142865779</v>
+        <v>0.1308310902568403</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.12404398793454073</v>
+        <v>0.12870191043457607</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.12201074099239553</v>
+        <v>0.1265967051941088</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.12055424648465975</v>
+        <v>0.12508215910586457</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.11994188217431005</v>
+        <v>0.12446586041668645</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.12059068891898346</v>
+        <v>0.1251355479041292</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.12212104676178813</v>
+        <v>0.12672197373956862</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.12432465819960668</v>
+        <v>0.12900375816869772</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.12674867105351395</v>
+        <v>0.13153417531086972</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.12960988721199343</v>
+        <v>0.13450840830827304</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.13302019113601798</v>
+        <v>0.1380207370649364</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.13706359741416058</v>
+        <v>0.14216599468011853</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.1412820395544998</v>
+        <v>0.1465200909884031</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.14513771502967823</v>
+        <v>0.15049308681737375</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.14822467284159996</v>
+        <v>0.15369219559637484</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.15092131537237036</v>
+        <v>0.15645808164526726</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.15354303935263877</v>
+        <v>0.159152976564166</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.15639760365892222</v>
+        <v>0.1620670022159237</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.1590745227229239</v>
+        <v>0.16481875220786124</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.1613015910827287</v>
+        <v>0.16710010711880646</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.16257530240544665</v>
+        <v>0.1684221088734017</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.16324055613560834</v>
+        <v>0.1691035678759275</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.16369585354025146</v>
+        <v>0.1695671862367913</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.16420803965541791</v>
+        <v>0.17009024070137355</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.16438578147714744</v>
+        <v>0.1702682107059465</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.16398201405976723</v>
+        <v>0.16984758469362365</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.1627130911987916</v>
+        <v>0.1685464707950248</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.16118363309180542</v>
+        <v>0.16697342301113666</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.15966328712135677</v>
+        <v>0.1654400017109207</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.15863715063643177</v>
+        <v>0.16438010017221616</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.15749277052623428</v>
+        <v>0.1632119266203282</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.1558272089928374</v>
+        <v>0.16148423044613874</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.15325637944362613</v>
+        <v>0.15884209106568212</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.1503852939569067</v>
+        <v>0.1558740275869719</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.14738161994275764</v>
+        <v>0.15278331003326487</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.1446777282713054</v>
+        <v>0.14997966197149343</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.14177303338245278</v>
+        <v>0.14700033932194545</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.13854220279250054</v>
+        <v>0.14366223119871505</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.13474279307140963</v>
+        <v>0.13976727323550492</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.1307390797129151</v>
+        <v>0.13562494169049277</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.12699832687288767</v>
+        <v>0.13176778598084662</v>
       </c>
       <c r="II2" t="n">
-        <v>0.12396039196903401</v>
+        <v>0.12862862229092642</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.12136123927374853</v>
+        <v>0.12594964067052117</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.11912845481157146</v>
+        <v>0.12364758194938974</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.11702849543285776</v>
+        <v>0.12146783115199733</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.11554208336966759</v>
+        <v>0.11993024651635922</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.11471777728947714</v>
+        <v>0.1190764643097089</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.11496364956023757</v>
+        <v>0.11932218836504477</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.1155491763198273</v>
+        <v>0.11992738890596631</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.11618571837051672</v>
+        <v>0.12057630296352516</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.11615359731209643</v>
+        <v>0.12055147894584009</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.11592363502819171</v>
+        <v>0.12032324873365531</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.11570839169406054</v>
+        <v>0.12011641071715311</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.11605705859293715</v>
+        <v>0.12046740775191697</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.11667482123208124</v>
+        <v>0.12108959971166679</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.11759367511242186</v>
+        <v>0.12202089934708951</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.1185799510144362</v>
+        <v>0.1230693537065329</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.12032491505939137</v>
+        <v>0.1248691670724127</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.12294584909354597</v>
+        <v>0.12759582306625966</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.12693716877540043</v>
+        <v>0.13168410738862402</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.13146012787547054</v>
+        <v>0.13635490251573448</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.13632730932452375</v>
+        <v>0.14134784358067273</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.14065214303793372</v>
+        <v>0.1458201655588944</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.14497950476159074</v>
+        <v>0.15025794468969797</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.1491886179585832</v>
+        <v>0.15460703887523572</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.15361484911217063</v>
+        <v>0.15914545178292408</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.15761577719652992</v>
+        <v>0.16327306831995697</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.16082811923158621</v>
+        <v>0.16655980405462995</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.1628024931360754</v>
+        <v>0.16858951573464118</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.1639494183810833</v>
+        <v>0.16976118213122318</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.16458247172635124</v>
+        <v>0.17039621731765953</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.16506677601087405</v>
+        <v>0.17087220651085722</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.1651365156251972</v>
+        <v>0.17093919787714157</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.1643741572863337</v>
+        <v>0.1701527090210511</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.16262136371969102</v>
+        <v>0.16837274540836025</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.16006453071777116</v>
+        <v>0.16573873034156972</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.15738138615262096</v>
+        <v>0.16298774312442302</v>
       </c>
       <c r="JS2" t="n">
-        <v>0.15483180024819657</v>
+        <v>0.16034113461541555</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.15257345974582726</v>
+        <v>0.15802081857078978</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.1503953522548659</v>
+        <v>0.1557853612641051</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.1481878983466188</v>
+        <v>0.15353399585687047</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.1462290537098343</v>
+        <v>0.15152053976593266</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.14479068952195986</v>
+        <v>0.15005058587521514</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.14407406974508372</v>
+        <v>0.14933473965768834</v>
       </c>
       <c r="JZ2" t="n">
-        <v>0.14358983217766236</v>
+        <v>0.14887093174862834</v>
       </c>
       <c r="KA2" t="n">
-        <v>0.14272049379666518</v>
+        <v>0.14799096855416613</v>
       </c>
       <c r="KB2" t="n">
-        <v>0.14108958952951833</v>
+        <v>0.1463099165306324</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.13890918346823888</v>
+        <v>0.1440349260401172</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.1367931927450715</v>
+        <v>0.1418586001518262</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.13513791389517077</v>
+        <v>0.14013140023161566</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.1335112544712174</v>
+        <v>0.13844976616157512</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.1314821770365236</v>
+        <v>0.13632344322076537</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.12888086582347477</v>
+        <v>0.1336384306373943</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.12607213296676592</v>
+        <v>0.1307486603559342</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.12362627237374366</v>
+        <v>0.1282276381170293</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.12169135305077229</v>
+        <v>0.12622047988512078</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.1202904946345183</v>
+        <v>0.12477806993506785</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.1187307496393662</v>
+        <v>0.12318618950573279</v>
       </c>
       <c r="KN2" t="n">
-        <v>0.11693061516785126</v>
+        <v>0.12135176803999193</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.1146982690306039</v>
+        <v>0.11903160828846907</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.1128038837243703</v>
+        <v>0.11705396851518748</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.11134522457435297</v>
+        <v>0.1155185757631452</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.11015915089041246</v>
+        <v>0.11428154608699038</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.10874052589442755</v>
+        <v>0.11280988676848976</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.10697291793307218</v>
+        <v>0.11099970469175734</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.10506843095062049</v>
+        <v>0.10902074736372554</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.10342888397970273</v>
+        <v>0.10733449372758302</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.10204636165136236</v>
+        <v>0.1058738163661652</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.10088124803095569</v>
+        <v>0.10467566096563273</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.0996674666442412</v>
+        <v>0.1033990781210803</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.098299932099614</v>
+        <v>0.10198599745524543</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.09705157594940497</v>
+        <v>0.10068816204832376</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.096273805196466</v>
+        <v>0.09987491048422809</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.0961368370175352</v>
+        <v>0.09971654813286586</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.09649183746441004</v>
+        <v>0.100071306347903</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.09693292930163086</v>
+        <v>0.10050913217578651</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.0973128284647494</v>
+        <v>0.10090828204829179</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.09769232605972446</v>
+        <v>0.10129388435139453</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.09845176084751145</v>
+        <v>0.10208231770319841</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.09955850589330523</v>
+        <v>0.1032044922875703</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.10073480472892767</v>
+        <v>0.10441538256267639</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.10130899237558597</v>
+        <v>0.10499602160517443</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.10112995598645029</v>
+        <v>0.10482227798006138</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.10025352324089563</v>
+        <v>0.10389706534431857</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.09911211781402361</v>
+        <v>0.10270814991160977</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.09766037757298175</v>
+        <v>0.10117281562227608</v>
       </c>
       <c r="LP2" t="n">
-        <v>0.09576781912102793</v>
+        <v>0.0991976242317684</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.09300797269683318</v>
+        <v>0.09631754410396458</v>
       </c>
       <c r="LR2" t="n">
-        <v>0.08941183285090187</v>
+        <v>0.09258088990253252</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.08506065005470274</v>
+        <v>0.0880608639103286</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.08040908196918554</v>
+        <v>0.08320957631171975</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.07583713110713143</v>
+        <v>0.07843363990151725</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.0714494850985319</v>
+        <v>0.07382762863341584</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.06716345784133423</v>
+        <v>0.069336897399111</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.06292960198242462</v>
+        <v>0.06488984378403047</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.05878185838679039</v>
+        <v>0.060534111322378625</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.05482885728650144</v>
+        <v>0.056380006176626446</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.05121021358819286</v>
+        <v>0.05256309837403344</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.04789580722464626</v>
+        <v>0.04905708313092092</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.044919990110976415</v>
+        <v>0.04590094607654522</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.04240909558190728</v>
+        <v>0.043246594801011604</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.040492662378735965</v>
+        <v>0.04122159062385724</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.03928021610956664</v>
+        <v>0.03993514638358173</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.03868867032953324</v>
+        <v>0.039310588585640995</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.03831191634851212</v>
+        <v>0.03889823438758526</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.037769357183950636</v>
+        <v>0.03832403211045919</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.036920295919988605</v>
+        <v>0.03740780952486635</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.035866313798023214</v>
+        <v>0.036306816818806986</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.03491605006961349</v>
+        <v>0.035306465620302964</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.034275429492805175</v>
+        <v>0.03462053817228846</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.03400767639413153</v>
+        <v>0.03432344908110475</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.03391498199761764</v>
+        <v>0.03421573496828177</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.03393829052885963</v>
+        <v>0.034260125198748465</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.03401295459104877</v>
+        <v>0.03435224462266092</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.03428363212587086</v>
+        <v>0.03464300174869409</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.03465760458551981</v>
+        <v>0.035029102148766096</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.03509246959332456</v>
+        <v>0.03549319137597229</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.035358103342679456</v>
+        <v>0.035777042199828316</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.03543900270446571</v>
+        <v>0.03588027664772377</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.03533225287641339</v>
+        <v>0.035757654948188264</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.03520634033157656</v>
+        <v>0.035626168857204994</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.03512932719365117</v>
+        <v>0.03553212652289494</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.035103351214811986</v>
+        <v>0.03549802506214012</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.034982881457452375</v>
+        <v>0.03537316653053473</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.03474661674443728</v>
+        <v>0.035136349571511155</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.03445036073532601</v>
+        <v>0.0348316432770723</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.034306274763580814</v>
+        <v>0.03467215128160684</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.034360303363950954</v>
+        <v>0.03470638560644078</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.034510905861807904</v>
+        <v>0.03486181673555941</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.03460482705644099</v>
+        <v>0.034964109825097</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.034504203295098776</v>
+        <v>0.034871988746182615</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.0343797806319746</v>
+        <v>0.03474385764081951</v>
       </c>
       <c r="NJ2" t="n">
-        <v>0.03432615590415939</v>
+        <v>0.034680261338958254</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.03450410798393211</v>
+        <v>0.03485303102689055</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.03475194570903051</v>
+        <v>0.035097266563186534</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.034919276130166606</v>
+        <v>0.03526620830179378</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.03489344752209184</v>
+        <v>0.035242833048299484</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.03474282053349559</v>
+        <v>0.03510124894351997</v>
       </c>
       <c r="NP2" t="n">
-        <v>0.03466359544113408</v>
+        <v>0.035025844437390194</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.03474475477760911</v>
+        <v>0.03510554445585831</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.034891012754222045</v>
+        <v>0.03526060197565644</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.034938555856300624</v>
+        <v>0.03530417509619787</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.034786646254899016</v>
+        <v>0.03515315362194414</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.03453780160942751</v>
+        <v>0.0348994418910229</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.03437427603115836</v>
+        <v>0.0347347515146305</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.03434495500119151</v>
+        <v>0.03470405147996123</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.034421237893974416</v>
+        <v>0.03477048732671177</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.03436370069132458</v>
+        <v>0.0347018574920055</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.03413895609044248</v>
+        <v>0.03447700120802036</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.033862369564610036</v>
+        <v>0.03418730558328361</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.033736959241102565</v>
+        <v>0.03406054470406117</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.03385178435638839</v>
+        <v>0.03415542778896948</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.03413521209620053</v>
+        <v>0.034443933371218115</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.03442363993571287</v>
+        <v>0.03474302712536507</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.034672486721363895</v>
+        <v>0.03501143877049962</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.03494601067045903</v>
+        <v>0.035298723128194806</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.03542434601192384</v>
+        <v>0.03579925347933962</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.03619372185730507</v>
+        <v>0.03660946166518988</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.0371181729979745</v>
+        <v>0.03758941419266463</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.03804952039692475</v>
+        <v>0.03856618911918771</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.038873559687519585</v>
+        <v>0.03944677096396757</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.03970505484630129</v>
+        <v>0.040338706036970866</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.04074481477896787</v>
+        <v>0.04144334083719716</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.042031609120642646</v>
+        <v>0.04279222774492176</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.04349763125831536</v>
+        <v>0.04432658970237401</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.04491367341216319</v>
+        <v>0.045826965991899296</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.04615703477297075</v>
+        <v>0.04715612761183514</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.047288589104240136</v>
+        <v>0.04836853978379557</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.048561280007450316</v>
+        <v>0.049728663705180885</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.050037888769579486</v>
+        <v>0.051289396849522766</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.051655966628880425</v>
+        <v>0.052994675909150434</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.05307458696663066</v>
+        <v>0.05450299709371278</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.05430980295641226</v>
+        <v>0.05581625924147345</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.055406542639085225</v>
+        <v>0.05698311666652213</v>
       </c>
       <c r="OZ2" t="n">
-        <v>0.05668219091520806</v>
+        <v>0.058340504980935126</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.0582116673866437</v>
+        <v>0.059940229925036115</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.0599771469240505</v>
+        <v>0.061809665014600904</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.06171206720023025</v>
+        <v>0.06362009389928185</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.06332804898106359</v>
+        <v>0.06534934241640432</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.06503575173991803</v>
+        <v>0.0671589949160472</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.06716976991336018</v>
+        <v>0.06940747304672562</v>
       </c>
       <c r="PG2" t="n">
-        <v>0.06983175439111336</v>
+        <v>0.07219950075011974</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.07303251393051059</v>
+        <v>0.07553914509843739</v>
       </c>
       <c r="PI2" t="n">
-        <v>0.07641463946972304</v>
+        <v>0.07908623921485959</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.07973405349865204</v>
+        <v>0.0825641561371657</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.08294699795649689</v>
+        <v>0.08593493668426189</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.08643218674136764</v>
+        <v>0.08957431428014033</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.09016619664370326</v>
+        <v>0.09346922795469426</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.09397053153486576</v>
+        <v>0.0974144654924784</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.09738650772745917</v>
+        <v>0.10096589187286244</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.10015632795849518</v>
+        <v>0.10385943751971115</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.10246285261408919</v>
+        <v>0.10626528522394568</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.10469529030159988</v>
+        <v>0.10859429452926321</v>
       </c>
       <c r="PS2" t="n">
-        <v>0.10707406222498961</v>
+        <v>0.11104199342148231</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.10946229629837728</v>
+        <v>0.11351658377726885</v>
       </c>
       <c r="PU2" t="n">
-        <v>0.11140620419510225</v>
+        <v>0.11551869489459203</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.11270198737648138</v>
+        <v>0.11686476795409834</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.11355625510485659</v>
+        <v>0.11776089303914557</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.11445398468423723</v>
+        <v>0.11871192138977288</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.11558354740308867</v>
+        <v>0.11988810527735631</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.11674701192924115</v>
+        <v>0.1211002986862928</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.11762039224223661</v>
+        <v>0.12199860172880371</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.118032736073455</v>
+        <v>0.12242703031737145</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.11822783585051769</v>
+        <v>0.12261901033688072</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.11849822651628396</v>
+        <v>0.1228842722041256</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.11907843921921031</v>
+        <v>0.12347889370766427</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.119700187018819</v>
+        <v>0.12412234182247586</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.12006433489363143</v>
+        <v>0.12450185772460402</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.11988411880082082</v>
+        <v>0.12429840033666482</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.119486915178238</v>
+        <v>0.1238901392798716</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.1190756471109734</v>
+        <v>0.12346670031936119</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.11903804736567834</v>
+        <v>0.123434180807718</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.11903890232367194</v>
+        <v>0.12342888830506012</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.11875042290548231</v>
+        <v>0.12311852261121448</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.11792069809921092</v>
+        <v>0.12227369804337582</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.11678457634480191</v>
+        <v>0.12109655218129893</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.11570603796222124</v>
+        <v>0.12000371903931611</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.1149495531264007</v>
+        <v>0.11921625166182531</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.1143288081628952</v>
+        <v>0.1185710379483053</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.1135751839591447</v>
+        <v>0.11776953394460327</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.11243392983531356</v>
+        <v>0.11660461280483897</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.11121194142878318</v>
+        <v>0.11532271543862127</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.11025079162237865</v>
+        <v>0.11432479731038353</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.10995244342614942</v>
+        <v>0.11398607962936219</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.11005297547556397</v>
+        <v>0.11409537445360146</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.11029739320495387</v>
+        <v>0.11435002038578959</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.11062499938115229</v>
+        <v>0.1146784163327128</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.11124066432396926</v>
+        <v>0.1152842566048406</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.11248926970662512</v>
+        <v>0.11656133768901318</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.11461027467842583</v>
+        <v>0.1187284145175109</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.11729145113531884</v>
+        <v>0.1215027260746771</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.1201629255764689</v>
+        <v>0.12445706143207384</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.12317485304057302</v>
+        <v>0.12757931220694096</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.12623020209137245</v>
+        <v>0.1307225251718822</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.12947882109456366</v>
+        <v>0.1339913116421767</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.13264437019990083</v>
+        <v>0.13722751893657303</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.13582677264819545</v>
+        <v>0.1405210247620912</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.13873915462152556</v>
+        <v>0.14357621717877248</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.14168291772779637</v>
+        <v>0.14663586287716487</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.1444211801183094</v>
+        <v>0.14940861417250395</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.14767676753731085</v>
+        <v>0.15277402900183465</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1513322065705406</v>
+        <v>0.1563863164106226</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.15526950057935163</v>
+        <v>0.16046565863531614</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.15897549469579794</v>
+        <v>0.1642552140112636</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.16247774033095094</v>
+        <v>0.1679844030869932</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.1659958822197619</v>
+        <v>0.1715120201760276</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.16979121205363457</v>
+        <v>0.17541176824688393</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.17393118459655096</v>
+        <v>0.17961030193846705</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.1783743331238851</v>
+        <v>0.18423137347996352</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.18258539933536339</v>
+        <v>0.18853733698594788</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.1868012394069724</v>
+        <v>0.1928457423031729</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.19052860814660402</v>
+        <v>0.19663023029065052</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.1948904548921792</v>
+        <v>0.20095700317414772</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.1990490564470718</v>
+        <v>0.20523444100427438</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.2038317757488791</v>
+        <v>0.21022798686078278</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.2081972335504477</v>
+        <v>0.21484062098008982</v>
       </c>
       <c r="SD2" t="n">
-        <v>0.21271788250484108</v>
+        <v>0.21951826694249996</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.21694060949314375</v>
+        <v>0.2238138274633532</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.22145023580250206</v>
+        <v>0.22844761468826139</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.22611869671737045</v>
+        <v>0.23314863293721988</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.2311066742241932</v>
+        <v>0.23818237566528822</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.23584696369074942</v>
+        <v>0.24301193302202234</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.24039275518899308</v>
+        <v>0.24739263685549387</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.24441084350361666</v>
+        <v>0.25151131258702214</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.24881488642364077</v>
+        <v>0.25600406217348654</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.25305468477882115</v>
+        <v>0.26079647045164056</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.2577165274266868</v>
+        <v>0.265566461964585</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.2616407407287335</v>
+        <v>0.2696356970830452</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.2654709613030117</v>
+        <v>0.27339719970522985</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.268581066611387</v>
+        <v>0.2767864944089325</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.2716440418318285</v>
+        <v>0.2802249297094658</v>
       </c>
     </row>
   </sheetData>
